--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ly86</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5107535423815041</v>
+        <v>0.6929630000000001</v>
       </c>
       <c r="H2">
-        <v>0.5107535423815041</v>
+        <v>2.078889</v>
       </c>
       <c r="I2">
-        <v>0.003561578697745505</v>
+        <v>0.004631112856270776</v>
       </c>
       <c r="J2">
-        <v>0.003561578697745505</v>
+        <v>0.004631112856270775</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.67910617240415</v>
+        <v>3.682067</v>
       </c>
       <c r="N2">
-        <v>3.67910617240415</v>
+        <v>11.046201</v>
       </c>
       <c r="O2">
-        <v>0.0145242518137643</v>
+        <v>0.01365535936826962</v>
       </c>
       <c r="P2">
-        <v>0.0145242518137643</v>
+        <v>0.01365535936826962</v>
       </c>
       <c r="Q2">
-        <v>1.879116510353076</v>
+        <v>2.551536194521</v>
       </c>
       <c r="R2">
-        <v>1.879116510353076</v>
+        <v>22.963825750689</v>
       </c>
       <c r="S2">
-        <v>5.172926586059446E-05</v>
+        <v>6.323951032739103E-05</v>
       </c>
       <c r="T2">
-        <v>5.172926586059446E-05</v>
+        <v>6.323951032739102E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5107535423815041</v>
+        <v>0.6929630000000001</v>
       </c>
       <c r="H3">
-        <v>0.5107535423815041</v>
+        <v>2.078889</v>
       </c>
       <c r="I3">
-        <v>0.003561578697745505</v>
+        <v>0.004631112856270776</v>
       </c>
       <c r="J3">
-        <v>0.003561578697745505</v>
+        <v>0.004631112856270775</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>144.983657391761</v>
+        <v>0.3420503333333333</v>
       </c>
       <c r="N3">
-        <v>144.983657391761</v>
+        <v>1.026151</v>
       </c>
       <c r="O3">
-        <v>0.5723616145229166</v>
+        <v>0.001268532110823372</v>
       </c>
       <c r="P3">
-        <v>0.5723616145229166</v>
+        <v>0.001268532110823372</v>
       </c>
       <c r="Q3">
-        <v>74.05091660026827</v>
+        <v>0.2370282251376667</v>
       </c>
       <c r="R3">
-        <v>74.05091660026827</v>
+        <v>2.133254026239</v>
       </c>
       <c r="S3">
-        <v>0.002038510933692044</v>
+        <v>5.874715367026423E-06</v>
       </c>
       <c r="T3">
-        <v>0.002038510933692044</v>
+        <v>5.874715367026421E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5107535423815041</v>
+        <v>0.6929630000000001</v>
       </c>
       <c r="H4">
-        <v>0.5107535423815041</v>
+        <v>2.078889</v>
       </c>
       <c r="I4">
-        <v>0.003561578697745505</v>
+        <v>0.004631112856270776</v>
       </c>
       <c r="J4">
-        <v>0.003561578697745505</v>
+        <v>0.004631112856270775</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>104.645029469108</v>
+        <v>148.360949</v>
       </c>
       <c r="N4">
-        <v>104.645029469108</v>
+        <v>445.082847</v>
       </c>
       <c r="O4">
-        <v>0.4131141336633192</v>
+        <v>0.5502132565248057</v>
       </c>
       <c r="P4">
-        <v>0.4131141336633192</v>
+        <v>0.5502132565248057</v>
       </c>
       <c r="Q4">
-        <v>53.44781949396379</v>
+        <v>102.808648301887</v>
       </c>
       <c r="R4">
-        <v>53.44781949396379</v>
+        <v>925.2778347169831</v>
       </c>
       <c r="S4">
-        <v>0.001471338498192867</v>
+        <v>0.002548099685982638</v>
       </c>
       <c r="T4">
-        <v>0.001471338498192867</v>
+        <v>0.002548099685982638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.5172964574159</v>
+        <v>0.6929630000000001</v>
       </c>
       <c r="H5">
-        <v>54.5172964574159</v>
+        <v>2.078889</v>
       </c>
       <c r="I5">
-        <v>0.3801591679933503</v>
+        <v>0.004631112856270776</v>
       </c>
       <c r="J5">
-        <v>0.3801591679933503</v>
+        <v>0.004631112856270775</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.67910617240415</v>
+        <v>117.005497</v>
       </c>
       <c r="N5">
-        <v>3.67910617240415</v>
+        <v>351.016491</v>
       </c>
       <c r="O5">
-        <v>0.0145242518137643</v>
+        <v>0.4339280381367295</v>
       </c>
       <c r="P5">
-        <v>0.0145242518137643</v>
+        <v>0.4339280381367294</v>
       </c>
       <c r="Q5">
-        <v>200.5749218992657</v>
+        <v>81.08048021761101</v>
       </c>
       <c r="R5">
-        <v>200.5749218992657</v>
+        <v>729.724321958499</v>
       </c>
       <c r="S5">
-        <v>0.005521527485246547</v>
+        <v>0.002009569716111363</v>
       </c>
       <c r="T5">
-        <v>0.005521527485246547</v>
+        <v>0.002009569716111363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.5172964574159</v>
+        <v>0.6929630000000001</v>
       </c>
       <c r="H6">
-        <v>54.5172964574159</v>
+        <v>2.078889</v>
       </c>
       <c r="I6">
-        <v>0.3801591679933503</v>
+        <v>0.004631112856270776</v>
       </c>
       <c r="J6">
-        <v>0.3801591679933503</v>
+        <v>0.004631112856270775</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>144.983657391761</v>
+        <v>0.2520656666666667</v>
       </c>
       <c r="N6">
-        <v>144.983657391761</v>
+        <v>0.756197</v>
       </c>
       <c r="O6">
-        <v>0.5723616145229166</v>
+        <v>0.0009348138593718677</v>
       </c>
       <c r="P6">
-        <v>0.5723616145229166</v>
+        <v>0.0009348138593718676</v>
       </c>
       <c r="Q6">
-        <v>7904.117031507053</v>
+        <v>0.1746721805703334</v>
       </c>
       <c r="R6">
-        <v>7904.117031507053</v>
+        <v>1.572049625133</v>
       </c>
       <c r="S6">
-        <v>0.2175885151683626</v>
+        <v>4.329228482357158E-06</v>
       </c>
       <c r="T6">
-        <v>0.2175885151683626</v>
+        <v>4.329228482357156E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>54.5172964574159</v>
+        <v>0.02219</v>
       </c>
       <c r="H7">
-        <v>54.5172964574159</v>
+        <v>0.06657</v>
       </c>
       <c r="I7">
-        <v>0.3801591679933503</v>
+        <v>0.0001482970869738334</v>
       </c>
       <c r="J7">
-        <v>0.3801591679933503</v>
+        <v>0.0001482970869738334</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>104.645029469108</v>
+        <v>3.682067</v>
       </c>
       <c r="N7">
-        <v>104.645029469108</v>
+        <v>11.046201</v>
       </c>
       <c r="O7">
-        <v>0.4131141336633192</v>
+        <v>0.01365535936826962</v>
       </c>
       <c r="P7">
-        <v>0.4131141336633192</v>
+        <v>0.01365535936826962</v>
       </c>
       <c r="Q7">
-        <v>5704.964094362384</v>
+        <v>0.08170506673</v>
       </c>
       <c r="R7">
-        <v>5704.964094362384</v>
+        <v>0.7353456005700001</v>
       </c>
       <c r="S7">
-        <v>0.1570491253397411</v>
+        <v>2.025050015895231E-06</v>
       </c>
       <c r="T7">
-        <v>0.1570491253397411</v>
+        <v>2.02505001589523E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>88.378451927231</v>
+        <v>0.02219</v>
       </c>
       <c r="H8">
-        <v>88.378451927231</v>
+        <v>0.06657</v>
       </c>
       <c r="I8">
-        <v>0.6162792533089043</v>
+        <v>0.0001482970869738334</v>
       </c>
       <c r="J8">
-        <v>0.6162792533089043</v>
+        <v>0.0001482970869738334</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>3.67910617240415</v>
+        <v>0.3420503333333333</v>
       </c>
       <c r="N8">
-        <v>3.67910617240415</v>
+        <v>1.026151</v>
       </c>
       <c r="O8">
-        <v>0.0145242518137643</v>
+        <v>0.001268532110823372</v>
       </c>
       <c r="P8">
-        <v>0.0145242518137643</v>
+        <v>0.001268532110823372</v>
       </c>
       <c r="Q8">
-        <v>325.153707992999</v>
+        <v>0.007590096896666667</v>
       </c>
       <c r="R8">
-        <v>325.153707992999</v>
+        <v>0.06831087207</v>
       </c>
       <c r="S8">
-        <v>0.008950995062657164</v>
+        <v>1.88119616767874E-07</v>
       </c>
       <c r="T8">
-        <v>0.008950995062657164</v>
+        <v>1.88119616767874E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>88.378451927231</v>
+        <v>0.02219</v>
       </c>
       <c r="H9">
-        <v>88.378451927231</v>
+        <v>0.06657</v>
       </c>
       <c r="I9">
-        <v>0.6162792533089043</v>
+        <v>0.0001482970869738334</v>
       </c>
       <c r="J9">
-        <v>0.6162792533089043</v>
+        <v>0.0001482970869738334</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.983657391761</v>
+        <v>148.360949</v>
       </c>
       <c r="N9">
-        <v>144.983657391761</v>
+        <v>445.082847</v>
       </c>
       <c r="O9">
-        <v>0.5723616145229166</v>
+        <v>0.5502132565248057</v>
       </c>
       <c r="P9">
-        <v>0.5723616145229166</v>
+        <v>0.5502132565248057</v>
       </c>
       <c r="Q9">
-        <v>12813.43119503188</v>
+        <v>3.29212945831</v>
       </c>
       <c r="R9">
-        <v>12813.43119503188</v>
+        <v>29.62916512479</v>
       </c>
       <c r="S9">
-        <v>0.352734588420862</v>
+        <v>8.159502315701521E-05</v>
       </c>
       <c r="T9">
-        <v>0.352734588420862</v>
+        <v>8.159502315701521E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02219</v>
+      </c>
+      <c r="H10">
+        <v>0.06657</v>
+      </c>
+      <c r="I10">
+        <v>0.0001482970869738334</v>
+      </c>
+      <c r="J10">
+        <v>0.0001482970869738334</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>117.005497</v>
+      </c>
+      <c r="N10">
+        <v>351.016491</v>
+      </c>
+      <c r="O10">
+        <v>0.4339280381367295</v>
+      </c>
+      <c r="P10">
+        <v>0.4339280381367294</v>
+      </c>
+      <c r="Q10">
+        <v>2.59635197843</v>
+      </c>
+      <c r="R10">
+        <v>23.36716780587</v>
+      </c>
+      <c r="S10">
+        <v>6.435026401194747E-05</v>
+      </c>
+      <c r="T10">
+        <v>6.435026401194745E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02219</v>
+      </c>
+      <c r="H11">
+        <v>0.06657</v>
+      </c>
+      <c r="I11">
+        <v>0.0001482970869738334</v>
+      </c>
+      <c r="J11">
+        <v>0.0001482970869738334</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2520656666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.756197</v>
+      </c>
+      <c r="O11">
+        <v>0.0009348138593718677</v>
+      </c>
+      <c r="P11">
+        <v>0.0009348138593718676</v>
+      </c>
+      <c r="Q11">
+        <v>0.005593337143333334</v>
+      </c>
+      <c r="R11">
+        <v>0.05034003429</v>
+      </c>
+      <c r="S11">
+        <v>1.386301722076147E-07</v>
+      </c>
+      <c r="T11">
+        <v>1.386301722076147E-07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>54.82857633333333</v>
+      </c>
+      <c r="H12">
+        <v>164.485729</v>
+      </c>
+      <c r="I12">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="J12">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.682067</v>
+      </c>
+      <c r="N12">
+        <v>11.046201</v>
+      </c>
+      <c r="O12">
+        <v>0.01365535936826962</v>
+      </c>
+      <c r="P12">
+        <v>0.01365535936826962</v>
+      </c>
+      <c r="Q12">
+        <v>201.8824915739476</v>
+      </c>
+      <c r="R12">
+        <v>1816.942424165529</v>
+      </c>
+      <c r="S12">
+        <v>0.005003632689289298</v>
+      </c>
+      <c r="T12">
+        <v>0.005003632689289298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>54.82857633333333</v>
+      </c>
+      <c r="H13">
+        <v>164.485729</v>
+      </c>
+      <c r="I13">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="J13">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.3420503333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.026151</v>
+      </c>
+      <c r="O13">
+        <v>0.001268532110823372</v>
+      </c>
+      <c r="P13">
+        <v>0.001268532110823372</v>
+      </c>
+      <c r="Q13">
+        <v>18.75413281100878</v>
+      </c>
+      <c r="R13">
+        <v>168.787195299079</v>
+      </c>
+      <c r="S13">
+        <v>0.0004648188719132399</v>
+      </c>
+      <c r="T13">
+        <v>0.0004648188719132398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>54.82857633333333</v>
+      </c>
+      <c r="H14">
+        <v>164.485729</v>
+      </c>
+      <c r="I14">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="J14">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>148.360949</v>
+      </c>
+      <c r="N14">
+        <v>445.082847</v>
+      </c>
+      <c r="O14">
+        <v>0.5502132565248057</v>
+      </c>
+      <c r="P14">
+        <v>0.5502132565248057</v>
+      </c>
+      <c r="Q14">
+        <v>8134.419617132274</v>
+      </c>
+      <c r="R14">
+        <v>73209.77655419047</v>
+      </c>
+      <c r="S14">
+        <v>0.2016105883544168</v>
+      </c>
+      <c r="T14">
+        <v>0.2016105883544168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>54.82857633333333</v>
+      </c>
+      <c r="H15">
+        <v>164.485729</v>
+      </c>
+      <c r="I15">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="J15">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>117.005497</v>
+      </c>
+      <c r="N15">
+        <v>351.016491</v>
+      </c>
+      <c r="O15">
+        <v>0.4339280381367295</v>
+      </c>
+      <c r="P15">
+        <v>0.4339280381367294</v>
+      </c>
+      <c r="Q15">
+        <v>6415.244823684104</v>
+      </c>
+      <c r="R15">
+        <v>57737.20341315693</v>
+      </c>
+      <c r="S15">
+        <v>0.159001052836828</v>
+      </c>
+      <c r="T15">
+        <v>0.159001052836828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>54.82857633333333</v>
+      </c>
+      <c r="H16">
+        <v>164.485729</v>
+      </c>
+      <c r="I16">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="J16">
+        <v>0.3664226297050832</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2520656666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.756197</v>
+      </c>
+      <c r="O16">
+        <v>0.0009348138593718677</v>
+      </c>
+      <c r="P16">
+        <v>0.0009348138593718676</v>
+      </c>
+      <c r="Q16">
+        <v>13.82040164584589</v>
+      </c>
+      <c r="R16">
+        <v>124.383614812613</v>
+      </c>
+      <c r="S16">
+        <v>0.0003425369526357976</v>
+      </c>
+      <c r="T16">
+        <v>0.0003425369526357975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>93.90207400000001</v>
+      </c>
+      <c r="H17">
+        <v>281.706222</v>
+      </c>
+      <c r="I17">
+        <v>0.6275531336188076</v>
+      </c>
+      <c r="J17">
+        <v>0.6275531336188075</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.682067</v>
+      </c>
+      <c r="N17">
+        <v>11.046201</v>
+      </c>
+      <c r="O17">
+        <v>0.01365535936826962</v>
+      </c>
+      <c r="P17">
+        <v>0.01365535936826962</v>
+      </c>
+      <c r="Q17">
+        <v>345.753727906958</v>
+      </c>
+      <c r="R17">
+        <v>3111.783551162622</v>
+      </c>
+      <c r="S17">
+        <v>0.008569463562248542</v>
+      </c>
+      <c r="T17">
+        <v>0.008569463562248539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>93.90207400000001</v>
+      </c>
+      <c r="H18">
+        <v>281.706222</v>
+      </c>
+      <c r="I18">
+        <v>0.6275531336188076</v>
+      </c>
+      <c r="J18">
+        <v>0.6275531336188075</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3420503333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.026151</v>
+      </c>
+      <c r="O18">
+        <v>0.001268532110823372</v>
+      </c>
+      <c r="P18">
+        <v>0.001268532110823372</v>
+      </c>
+      <c r="Q18">
+        <v>32.11923571239134</v>
+      </c>
+      <c r="R18">
+        <v>289.073121411522</v>
+      </c>
+      <c r="S18">
+        <v>0.0007960713012432876</v>
+      </c>
+      <c r="T18">
+        <v>0.0007960713012432873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>88.378451927231</v>
-      </c>
-      <c r="H10">
-        <v>88.378451927231</v>
-      </c>
-      <c r="I10">
-        <v>0.6162792533089043</v>
-      </c>
-      <c r="J10">
-        <v>0.6162792533089043</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>104.645029469108</v>
-      </c>
-      <c r="N10">
-        <v>104.645029469108</v>
-      </c>
-      <c r="O10">
-        <v>0.4131141336633192</v>
-      </c>
-      <c r="P10">
-        <v>0.4131141336633192</v>
-      </c>
-      <c r="Q10">
-        <v>9248.365706359233</v>
-      </c>
-      <c r="R10">
-        <v>9248.365706359233</v>
-      </c>
-      <c r="S10">
-        <v>0.2545936698253853</v>
-      </c>
-      <c r="T10">
-        <v>0.2545936698253853</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>93.90207400000001</v>
+      </c>
+      <c r="H19">
+        <v>281.706222</v>
+      </c>
+      <c r="I19">
+        <v>0.6275531336188076</v>
+      </c>
+      <c r="J19">
+        <v>0.6275531336188075</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>148.360949</v>
+      </c>
+      <c r="N19">
+        <v>445.082847</v>
+      </c>
+      <c r="O19">
+        <v>0.5502132565248057</v>
+      </c>
+      <c r="P19">
+        <v>0.5502132565248057</v>
+      </c>
+      <c r="Q19">
+        <v>13931.40081170823</v>
+      </c>
+      <c r="R19">
+        <v>125382.6073053741</v>
+      </c>
+      <c r="S19">
+        <v>0.3452880532907506</v>
+      </c>
+      <c r="T19">
+        <v>0.3452880532907506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>93.90207400000001</v>
+      </c>
+      <c r="H20">
+        <v>281.706222</v>
+      </c>
+      <c r="I20">
+        <v>0.6275531336188076</v>
+      </c>
+      <c r="J20">
+        <v>0.6275531336188075</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>117.005497</v>
+      </c>
+      <c r="N20">
+        <v>351.016491</v>
+      </c>
+      <c r="O20">
+        <v>0.4339280381367295</v>
+      </c>
+      <c r="P20">
+        <v>0.4339280381367294</v>
+      </c>
+      <c r="Q20">
+        <v>10987.05883770078</v>
+      </c>
+      <c r="R20">
+        <v>98883.529539307</v>
+      </c>
+      <c r="S20">
+        <v>0.272312900097766</v>
+      </c>
+      <c r="T20">
+        <v>0.2723129000977659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>93.90207400000001</v>
+      </c>
+      <c r="H21">
+        <v>281.706222</v>
+      </c>
+      <c r="I21">
+        <v>0.6275531336188076</v>
+      </c>
+      <c r="J21">
+        <v>0.6275531336188075</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.2520656666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.756197</v>
+      </c>
+      <c r="O21">
+        <v>0.0009348138593718677</v>
+      </c>
+      <c r="P21">
+        <v>0.0009348138593718676</v>
+      </c>
+      <c r="Q21">
+        <v>23.66948888419267</v>
+      </c>
+      <c r="R21">
+        <v>213.025399957734</v>
+      </c>
+      <c r="S21">
+        <v>0.0005866453667991069</v>
+      </c>
+      <c r="T21">
+        <v>0.0005866453667991067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.186266</v>
+      </c>
+      <c r="H22">
+        <v>0.5587979999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="J22">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.682067</v>
+      </c>
+      <c r="N22">
+        <v>11.046201</v>
+      </c>
+      <c r="O22">
+        <v>0.01365535936826962</v>
+      </c>
+      <c r="P22">
+        <v>0.01365535936826962</v>
+      </c>
+      <c r="Q22">
+        <v>0.6858438918219999</v>
+      </c>
+      <c r="R22">
+        <v>6.172595026397999</v>
+      </c>
+      <c r="S22">
+        <v>1.699855638849666E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.699855638849666E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.186266</v>
+      </c>
+      <c r="H23">
+        <v>0.5587979999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="J23">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.3420503333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.026151</v>
+      </c>
+      <c r="O23">
+        <v>0.001268532110823372</v>
+      </c>
+      <c r="P23">
+        <v>0.001268532110823372</v>
+      </c>
+      <c r="Q23">
+        <v>0.06371234738866666</v>
+      </c>
+      <c r="R23">
+        <v>0.573411126498</v>
+      </c>
+      <c r="S23">
+        <v>1.57910268305024E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.579102683050239E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.186266</v>
+      </c>
+      <c r="H24">
+        <v>0.5587979999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="J24">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>148.360949</v>
+      </c>
+      <c r="N24">
+        <v>445.082847</v>
+      </c>
+      <c r="O24">
+        <v>0.5502132565248057</v>
+      </c>
+      <c r="P24">
+        <v>0.5502132565248057</v>
+      </c>
+      <c r="Q24">
+        <v>27.634600526434</v>
+      </c>
+      <c r="R24">
+        <v>248.711404737906</v>
+      </c>
+      <c r="S24">
+        <v>0.0006849201704986296</v>
+      </c>
+      <c r="T24">
+        <v>0.0006849201704986296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.186266</v>
+      </c>
+      <c r="H25">
+        <v>0.5587979999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="J25">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>117.005497</v>
+      </c>
+      <c r="N25">
+        <v>351.016491</v>
+      </c>
+      <c r="O25">
+        <v>0.4339280381367295</v>
+      </c>
+      <c r="P25">
+        <v>0.4339280381367294</v>
+      </c>
+      <c r="Q25">
+        <v>21.79414590420199</v>
+      </c>
+      <c r="R25">
+        <v>196.1473131378179</v>
+      </c>
+      <c r="S25">
+        <v>0.0005401652220121408</v>
+      </c>
+      <c r="T25">
+        <v>0.0005401652220121407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.186266</v>
+      </c>
+      <c r="H26">
+        <v>0.5587979999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="J26">
+        <v>0.001244826732864716</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.2520656666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.756197</v>
+      </c>
+      <c r="O26">
+        <v>0.0009348138593718677</v>
+      </c>
+      <c r="P26">
+        <v>0.0009348138593718676</v>
+      </c>
+      <c r="Q26">
+        <v>0.04695126346733332</v>
+      </c>
+      <c r="R26">
+        <v>0.422561371206</v>
+      </c>
+      <c r="S26">
+        <v>1.163681282398538E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.163681282398538E-06</v>
       </c>
     </row>
   </sheetData>
